--- a/biology/Botanique/Mousseux_Ancien/Mousseux_Ancien.xlsx
+++ b/biology/Botanique/Mousseux_Ancien/Mousseux_Ancien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Mousseux Ancien' (parfois 'Moussue Ancienne') est un cultivar de rosier mousseux obtenu par le rosiériste français Jean-Pierre Vibert en 1825, fameux pour l'aspect « mousseux » de son pédoncule et de ses pétales de couleur mauve pâle. 
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette rose non remontante en forme de coupe exhale un parfum prononcé. Elle peut atteindre 1,20 m. Les pétales sont de couleur mauve pâle, de parme à lilas, et son feuillage est vert clair.
-Cette rose ancienne peut être admirée dans plusieurs roseraies d'Europe et d'ailleurs, comme au Parc de la Tête d'Or et à l'Europa-Rosarium de Sangerhausen[1].
+Cette rose ancienne peut être admirée dans plusieurs roseraies d'Europe et d'ailleurs, comme au Parc de la Tête d'Or et à l'Europa-Rosarium de Sangerhausen.
 </t>
         </is>
       </c>
